--- a/HT36C/Table5.xlsx
+++ b/HT36C/Table5.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="713" uniqueCount="68">
   <si>
     <t>mCold</t>
   </si>
@@ -217,6 +217,9 @@
   </si>
   <si>
     <t>-35.66</t>
+  </si>
+  <si>
+    <t>356.7</t>
   </si>
 </sst>
 </file>
@@ -237,7 +240,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -270,11 +273,13 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true" applyBorder="true"/>
@@ -296,6 +301,8 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -636,215 +643,215 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="F1" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="G1" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="H1" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="19" t="s">
+      <c r="I1" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="19" t="s">
+      <c r="J1" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="19" t="s">
+      <c r="K1" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="19" t="s">
+      <c r="L1" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="19" t="s">
+      <c r="M1" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="19" t="s">
+      <c r="N1" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="19" t="s">
+      <c r="O1" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="19" t="s">
+      <c r="P1" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="19" t="s">
+      <c r="Q1" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="19" t="s">
+      <c r="R1" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="19" t="s">
+      <c r="S1" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="19" t="s">
+      <c r="T1" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="19" t="s">
+      <c r="U1" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="19" t="s">
+      <c r="V1" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="19" t="s">
+      <c r="W1" s="21" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="D2" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="E2" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="F2" s="19" t="s">
+      <c r="F2" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="G2" s="19" t="s">
+      <c r="G2" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="H2" s="19" t="s">
+      <c r="H2" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="I2" s="19" t="s">
+      <c r="I2" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="J2" s="19" t="s">
+      <c r="J2" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="K2" s="19" t="s">
+      <c r="K2" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="L2" s="19" t="s">
+      <c r="L2" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="M2" s="19" t="s">
+      <c r="M2" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="N2" s="19" t="s">
+      <c r="N2" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="O2" s="19" t="s">
+      <c r="O2" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="P2" s="19" t="s">
+      <c r="P2" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="Q2" s="19" t="s">
+      <c r="Q2" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="R2" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="S2" s="19" t="s">
+      <c r="R2" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="S2" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="T2" s="19" t="s">
+      <c r="T2" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="U2" s="19" t="s">
+      <c r="U2" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="V2" s="19" t="s">
+      <c r="V2" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="W2" s="19" t="s">
+      <c r="W2" s="21" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="19" t="s">
+      <c r="D3" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="E3" s="19" t="s">
+      <c r="E3" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="F3" s="19" t="s">
+      <c r="F3" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="G3" s="19" t="s">
+      <c r="G3" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="H3" s="19" t="s">
+      <c r="H3" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="I3" s="19" t="s">
+      <c r="I3" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="J3" s="19" t="s">
+      <c r="J3" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="K3" s="19" t="s">
+      <c r="K3" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="L3" s="19" t="s">
+      <c r="L3" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="M3" s="19" t="s">
+      <c r="M3" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="N3" s="19" t="s">
+      <c r="N3" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="O3" s="19" t="s">
+      <c r="O3" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="P3" s="19" t="s">
+      <c r="P3" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="Q3" s="19" t="s">
+      <c r="Q3" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="R3" s="19" t="s">
+      <c r="R3" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="S3" s="19" t="s">
+      <c r="S3" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="T3" s="19" t="s">
+      <c r="T3" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="U3" s="19" t="s">
+      <c r="U3" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="V3" s="19" t="s">
+      <c r="V3" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="W3" s="19" t="s">
+      <c r="W3" s="21" t="s">
         <v>66</v>
       </c>
     </row>
